--- a/需求分析/3具体功能模块.xlsx
+++ b/需求分析/3具体功能模块.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\咚\大三_项目实训\Utunan\需求分析\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Utunan\需求分析\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80A9692-45D1-4E55-B002-6D8FC017C00F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268D3E03-A9CF-42BC-9856-E7AA19734C74}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10971" windowHeight="3386" xr2:uid="{D2B9255C-B7FB-4333-95F7-D01555B89C70}"/>
   </bookViews>
@@ -828,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151CB0D1-29B8-499A-9716-0F592170943D}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
